--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS_R\Documents\SQL\Nueva carpeta\Talento_grupo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3D2EE6E2-AC94-4346-AF34-B28B2B6DAD0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4A1EC8-5BC6-4847-9CC1-2329CFB963AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="750" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="750" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pase_diario" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="venta" sheetId="2" r:id="rId6"/>
     <sheet name="categoria" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1905,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2157,6 +2157,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2274,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2399,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
